--- a/Assets/06.Table/DailyPass.xlsx
+++ b/Assets/06.Table/DailyPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92C1D51-AACF-423D-84B8-3FA8AC7B68FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CB6020-55F0-46F0-B8FE-6C3D3E79890A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyPass" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -483,13 +483,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>100000</v>
+        <v>10000000</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
       </c>
       <c r="F2" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -503,13 +503,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>100000</v>
+        <v>10000000</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
       </c>
       <c r="F3" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -523,13 +523,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>100000</v>
+        <v>10000000</v>
       </c>
       <c r="E4" s="1">
         <v>30</v>
       </c>
       <c r="F4" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -543,13 +543,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>100000</v>
+        <v>10000000</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
       </c>
       <c r="F5" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -563,13 +563,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>100000</v>
+        <v>10000000</v>
       </c>
       <c r="E6" s="1">
         <v>30</v>
       </c>
       <c r="F6" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -583,13 +583,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>100000</v>
+        <v>10000000</v>
       </c>
       <c r="E7" s="1">
         <v>30</v>
       </c>
       <c r="F7" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -603,13 +603,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>100000</v>
+        <v>10000000</v>
       </c>
       <c r="E8" s="1">
         <v>30</v>
       </c>
       <c r="F8" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -623,13 +623,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>100000</v>
+        <v>10000000</v>
       </c>
       <c r="E9" s="1">
         <v>30</v>
       </c>
       <c r="F9" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -643,13 +643,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>100000</v>
+        <v>10000000</v>
       </c>
       <c r="E10" s="1">
         <v>30</v>
       </c>
       <c r="F10" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -663,13 +663,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>100000</v>
+        <v>10000000</v>
       </c>
       <c r="E11" s="1">
         <v>30</v>
       </c>
       <c r="F11" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DailyPass.xlsx
+++ b/Assets/06.Table/DailyPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CB6020-55F0-46F0-B8FE-6C3D3E79890A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F086341-C31B-4778-9366-DF347330B021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -114,11 +114,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -140,9 +143,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +183,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +289,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -439,7 +442,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -482,14 +485,14 @@
       <c r="C2" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
-        <v>10000000</v>
+      <c r="D2" s="2">
+        <v>50000000</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
       </c>
-      <c r="F2" s="1">
-        <v>3000</v>
+      <c r="F2" s="2">
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -502,14 +505,14 @@
       <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
-        <v>10000000</v>
+      <c r="D3" s="2">
+        <v>50000000</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
       </c>
-      <c r="F3" s="1">
-        <v>3000</v>
+      <c r="F3" s="2">
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -522,14 +525,14 @@
       <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
-        <v>10000000</v>
+      <c r="D4" s="2">
+        <v>50000000</v>
       </c>
       <c r="E4" s="1">
         <v>30</v>
       </c>
-      <c r="F4" s="1">
-        <v>3000</v>
+      <c r="F4" s="2">
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -542,14 +545,14 @@
       <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
-        <v>10000000</v>
+      <c r="D5" s="2">
+        <v>50000000</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
       </c>
-      <c r="F5" s="1">
-        <v>3000</v>
+      <c r="F5" s="2">
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -562,14 +565,14 @@
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
-        <v>10000000</v>
+      <c r="D6" s="2">
+        <v>50000000</v>
       </c>
       <c r="E6" s="1">
         <v>30</v>
       </c>
-      <c r="F6" s="1">
-        <v>3000</v>
+      <c r="F6" s="2">
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -582,14 +585,14 @@
       <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
-        <v>10000000</v>
+      <c r="D7" s="2">
+        <v>50000000</v>
       </c>
       <c r="E7" s="1">
         <v>30</v>
       </c>
-      <c r="F7" s="1">
-        <v>3000</v>
+      <c r="F7" s="2">
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -602,14 +605,14 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
-        <v>10000000</v>
+      <c r="D8" s="2">
+        <v>50000000</v>
       </c>
       <c r="E8" s="1">
         <v>30</v>
       </c>
-      <c r="F8" s="1">
-        <v>3000</v>
+      <c r="F8" s="2">
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -622,14 +625,14 @@
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="1">
-        <v>10000000</v>
+      <c r="D9" s="2">
+        <v>50000000</v>
       </c>
       <c r="E9" s="1">
         <v>30</v>
       </c>
-      <c r="F9" s="1">
-        <v>3000</v>
+      <c r="F9" s="2">
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -642,14 +645,14 @@
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="1">
-        <v>10000000</v>
+      <c r="D10" s="2">
+        <v>50000000</v>
       </c>
       <c r="E10" s="1">
         <v>30</v>
       </c>
-      <c r="F10" s="1">
-        <v>3000</v>
+      <c r="F10" s="2">
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -662,14 +665,14 @@
       <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="1">
-        <v>10000000</v>
+      <c r="D11" s="2">
+        <v>50000000</v>
       </c>
       <c r="E11" s="1">
         <v>30</v>
       </c>
-      <c r="F11" s="1">
-        <v>3000</v>
+      <c r="F11" s="2">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
